--- a/biology/Botanique/Registre_des_arbres_des_îles_britanniques/Registre_des_arbres_des_îles_britanniques.xlsx
+++ b/biology/Botanique/Registre_des_arbres_des_îles_britanniques/Registre_des_arbres_des_îles_britanniques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Registre_des_arbres_des_%C3%AEles_britanniques</t>
+          <t>Registre_des_arbres_des_îles_britanniques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  Registre des arbres des îles britanniques,  'The Tree Register' , ou plus précisément, le  'Tree Register of the British Isles'  (TROBI), est un organisme caritatif, un organisme de bienfaisance enregistré, créé pour rassembler et mettre à jour une base de données d'arbres remarquables à travers la Grande-Bretagne et l'Irlande. Il comprend une base de données informatique contenant plus de 150 000 arbres.
-Il contient des données provenant des archives manuscrites originales du dendrologue Alan Mitchell, renommé internationalement et d'autres documents historiques provenant de travaux de référence remontant à plus de 200 ans[1].
+Il contient des données provenant des archives manuscrites originales du dendrologue Alan Mitchell, renommé internationalement et d'autres documents historiques provenant de travaux de référence remontant à plus de 200 ans.
 Les mesures récentes de hauteur et de circonférence peuvent être comparées à celles enregistrées par  Loudon (1830),  Elwes et  Henry (début des années 1900) et l'hon. Maynard Greville (années 1950), fournissant un enregistrement précieux des taux de croissance.
 The Tree Register a été à l'origine de l'opération Ancient Tree Hunt.
 </t>
